--- a/medicine/Enfance/Prix_de_littérature_de_jeunesse_du_Conseil_des_Arts_du_Canada/Prix_de_littérature_de_jeunesse_du_Conseil_des_Arts_du_Canada.xlsx
+++ b/medicine/Enfance/Prix_de_littérature_de_jeunesse_du_Conseil_des_Arts_du_Canada/Prix_de_littérature_de_jeunesse_du_Conseil_des_Arts_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_de_litt%C3%A9rature_de_jeunesse_du_Conseil_des_Arts_du_Canada</t>
+          <t>Prix_de_littérature_de_jeunesse_du_Conseil_des_Arts_du_Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le prix de littérature de jeunesse du Conseil des Arts du Canada était un prix littéraire canadien de 1975 à 1986 pour les meilleures œuvres de littérature jeunesse. Administré par le Conseil des arts du Canada, depuis 1987 ces prix ont été intégrés dans le prix littéraires du Gouverneur général :
 Prix du Gouverneur général : littérature jeunesse de langue française - texte
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_de_litt%C3%A9rature_de_jeunesse_du_Conseil_des_Arts_du_Canada</t>
+          <t>Prix_de_littérature_de_jeunesse_du_Conseil_des_Arts_du_Canada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail du Canada   Portail de la littérature d’enfance et de jeunesse   Portail des récompenses et distinctions                   </t>
         </is>
